--- a/data_output/prism_passive/all_passive_out_licht_pennation_GM_submax_1.xlsx
+++ b/data_output/prism_passive/all_passive_out_licht_pennation_GM_submax_1.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,133 +513,133 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>9.2440261960671055</v>
+        <v>9.2440261996355328</v>
       </c>
       <c r="C2">
-        <v>12.071032097128743</v>
+        <v>12.071032096777817</v>
       </c>
       <c r="D2">
-        <v>17.041785773896159</v>
+        <v>17.041785765171891</v>
       </c>
       <c r="E2">
-        <v>9.7979249036859493</v>
+        <v>9.7979249052399666</v>
       </c>
       <c r="F2">
-        <v>8.3278446741226588</v>
+        <v>8.3278446551493293</v>
       </c>
       <c r="G2">
-        <v>10.595588166964372</v>
+        <v>10.595588165159501</v>
       </c>
       <c r="H2">
-        <v>15.700021668156587</v>
+        <v>15.700021662631492</v>
       </c>
       <c r="I2">
-        <v>15.573141858119595</v>
+        <v>15.573141847076347</v>
       </c>
       <c r="J2">
-        <v>14.842325397314484</v>
+        <v>14.842325382121325</v>
       </c>
       <c r="K2">
-        <v>13.839187524737614</v>
+        <v>13.839187507961643</v>
       </c>
       <c r="L2">
-        <v>19.644747568586315</v>
+        <v>19.6447475535129</v>
       </c>
       <c r="N2">
-        <v>14.874959649101559</v>
+        <v>14.874959644649646</v>
       </c>
       <c r="O2">
-        <v>10.728384776909039</v>
+        <v>10.728384784212942</v>
       </c>
       <c r="P2">
-        <v>20.85583063527536</v>
+        <v>20.855830624027863</v>
       </c>
       <c r="Q2">
-        <v>14.381506063324565</v>
+        <v>14.381506068844836</v>
       </c>
       <c r="S2">
-        <v>14.397653095943515</v>
+        <v>14.397653129064516</v>
       </c>
       <c r="V2">
-        <v>19.751687762216818</v>
+        <v>19.751687790998918</v>
       </c>
       <c r="W2">
-        <v>19.987975521203307</v>
+        <v>19.987975537240825</v>
       </c>
       <c r="X2">
-        <v>13.960699244514863</v>
+        <v>13.960699238526431</v>
       </c>
       <c r="AA2">
-        <v>11.210407618583915</v>
+        <v>11.210407616674711</v>
       </c>
       <c r="AB2">
-        <v>15.374548058367807</v>
+        <v>15.374548063796517</v>
       </c>
       <c r="AC2">
-        <v>15.730791073304042</v>
+        <v>15.730791093079919</v>
       </c>
       <c r="AD2">
-        <v>10.050636889088095</v>
+        <v>10.050636904246964</v>
       </c>
       <c r="AE2">
-        <v>11.023235846193646</v>
+        <v>11.023235851956418</v>
       </c>
       <c r="AF2">
-        <v>14.212206387363945</v>
+        <v>14.212206383124446</v>
       </c>
       <c r="AG2">
-        <v>7.7657027103940219</v>
+        <v>7.7657027454448215</v>
       </c>
       <c r="AH2">
-        <v>15.379188813055631</v>
+        <v>15.379188822032454</v>
       </c>
       <c r="AI2">
-        <v>15.150576762974538</v>
+        <v>15.150576762204922</v>
       </c>
       <c r="AJ2">
-        <v>20.163371761365887</v>
+        <v>20.16337178886814</v>
       </c>
       <c r="AK2">
-        <v>14.90170117476141</v>
+        <v>14.901701182011449</v>
       </c>
       <c r="AL2">
-        <v>7.0892179885825701</v>
+        <v>7.0892180082844449</v>
       </c>
       <c r="AM2">
-        <v>15.426059629485989</v>
+        <v>15.426059636194196</v>
       </c>
       <c r="AN2">
-        <v>8.1335694002945171</v>
+        <v>8.1335694119915729</v>
       </c>
       <c r="AO2">
-        <v>20.751943702836833</v>
+        <v>20.751943700256653</v>
       </c>
       <c r="AP2">
-        <v>15.459958544722987</v>
+        <v>15.459958547071132</v>
       </c>
       <c r="AQ2">
-        <v>13.93765682814772</v>
+        <v>13.937656838577013</v>
       </c>
       <c r="AR2">
-        <v>9.6549892713411243</v>
+        <v>9.6549892737036842</v>
       </c>
       <c r="AS2">
-        <v>14.703469549859378</v>
+        <v>14.703469558758311</v>
       </c>
       <c r="AU2">
-        <v>17.110277482546543</v>
+        <v>17.110277482237102</v>
       </c>
       <c r="AV2">
-        <v>16.523376641933666</v>
+        <v>16.523376657762455</v>
       </c>
       <c r="AW2">
-        <v>18.415088973760632</v>
+        <v>18.415088988219878</v>
       </c>
       <c r="AX2">
-        <v>7.6042094745843665</v>
+        <v>7.6042094674285989</v>
       </c>
       <c r="AY2">
-        <v>15.464124574408601</v>
+        <v>15.464124581980226</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -652,121 +647,121 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>11.835315122747016</v>
+        <v>11.835315116379029</v>
       </c>
       <c r="C3">
-        <v>14.032494190081437</v>
+        <v>14.032494178355286</v>
       </c>
       <c r="E3">
-        <v>4.5810576772493095</v>
+        <v>4.5810576820623377</v>
       </c>
       <c r="F3">
-        <v>16.842820027276368</v>
+        <v>16.842820040424851</v>
       </c>
       <c r="G3">
-        <v>10.590700258155309</v>
+        <v>10.590700259269173</v>
       </c>
       <c r="H3">
-        <v>10.121650120846375</v>
+        <v>10.121650118512122</v>
       </c>
       <c r="J3">
-        <v>8.6404458605475423</v>
+        <v>8.6404458605868228</v>
       </c>
       <c r="K3">
-        <v>7.6259095800357963</v>
+        <v>7.625909589638213</v>
       </c>
       <c r="L3">
-        <v>14.029968930927099</v>
+        <v>14.0299689138688</v>
       </c>
       <c r="M3">
-        <v>8.3715254126778653</v>
+        <v>8.3714472525245025</v>
       </c>
       <c r="N3">
-        <v>13.107663081764084</v>
+        <v>13.107663077411384</v>
       </c>
       <c r="P3">
-        <v>15.478080205878449</v>
+        <v>15.478080212563631</v>
       </c>
       <c r="Q3">
-        <v>14.115247179951979</v>
+        <v>14.115247175615679</v>
       </c>
       <c r="R3">
-        <v>15.468253362592009</v>
+        <v>15.46825337714014</v>
       </c>
       <c r="W3">
-        <v>18.92594754173339</v>
+        <v>18.925947548789551</v>
       </c>
       <c r="AA3">
-        <v>12.859283034758743</v>
+        <v>12.859283047060073</v>
       </c>
       <c r="AB3">
-        <v>6.867308783540337</v>
+        <v>6.8673087738024723</v>
       </c>
       <c r="AC3">
-        <v>10.083968987506168</v>
+        <v>10.083968982097971</v>
       </c>
       <c r="AD3">
-        <v>7.3442827758742917</v>
+        <v>7.3442827922794773</v>
       </c>
       <c r="AE3">
-        <v>12.955648364529077</v>
+        <v>12.955648365949653</v>
       </c>
       <c r="AF3">
-        <v>8.6296762589367848</v>
+        <v>8.6296762587608171</v>
       </c>
       <c r="AG3">
-        <v>15.850681356039233</v>
+        <v>15.850681369037918</v>
       </c>
       <c r="AH3">
-        <v>6.1974114094353814</v>
+        <v>6.1974114004854917</v>
       </c>
       <c r="AI3">
-        <v>4.905273805493068</v>
+        <v>4.9052737943091715</v>
       </c>
       <c r="AJ3">
-        <v>10.071221762456329</v>
+        <v>10.071221774397184</v>
       </c>
       <c r="AK3">
-        <v>9.2292025051034265</v>
+        <v>9.2292025137333482</v>
       </c>
       <c r="AL3">
-        <v>13.516678350586924</v>
+        <v>13.516678356334694</v>
       </c>
       <c r="AM3">
-        <v>12.129492668621431</v>
+        <v>12.129492673619861</v>
       </c>
       <c r="AN3">
-        <v>14.795218020512682</v>
+        <v>14.795218029815132</v>
       </c>
       <c r="AO3">
-        <v>13.311873685960034</v>
+        <v>13.311873667376766</v>
       </c>
       <c r="AP3">
-        <v>12.001330278085305</v>
+        <v>12.001330289313923</v>
       </c>
       <c r="AQ3">
-        <v>17.423704300910273</v>
+        <v>17.423704305718715</v>
       </c>
       <c r="AS3">
-        <v>17.083708635526257</v>
+        <v>17.083708628190067</v>
       </c>
       <c r="AT3">
-        <v>13.015286387394438</v>
+        <v>13.015286389141645</v>
       </c>
       <c r="AU3">
-        <v>22.028262444195853</v>
+        <v>22.028262414869385</v>
       </c>
       <c r="AV3">
-        <v>13.742704570395745</v>
+        <v>13.742704574754491</v>
       </c>
       <c r="AW3">
-        <v>9.3830262708301682</v>
+        <v>9.3830262846502617</v>
       </c>
       <c r="AX3">
-        <v>19.493859758199683</v>
+        <v>19.493859761542573</v>
       </c>
       <c r="AY3">
-        <v>11.988955733117226</v>
+        <v>11.988955725989465</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_licht_pennation_GM_submax_1.xlsx
+++ b/data_output/prism_passive/all_passive_out_licht_pennation_GM_submax_1.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,56 +401,59 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>9.2440261996355328</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>12.071032096777817</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>17.041785765171891</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>9.7979249052399666</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>8.3278446551493293</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>10.595588165159501</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>15.700021662631492</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>15.573141847076347</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>14.842325382121325</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>13.839187507961643</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>19.6447475535129</v>
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>14.874959644649646</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>10.728384784212942</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>20.855830624027863</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>14.381506068844836</v>
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>14.397653129064516</v>
+        <v>16.731202537604627</v>
       </c>
       <c r="V2">
         <v>19.751687790998918</v>
@@ -570,55 +465,55 @@
         <v>13.960699238526431</v>
       </c>
       <c r="AA2">
-        <v>11.210407616674711</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>15.374548063796517</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>15.730791093079919</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>10.050636904246964</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>11.023235851956418</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>14.212206383124446</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>7.7657027454448215</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>15.379188822032454</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>15.150576762204922</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>20.16337178886814</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>14.901701182011449</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>7.0892180082844449</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>15.426059636194196</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>8.1335694119915729</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>20.751943700256653</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>15.459958547071132</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>13.937656838577013</v>
+        <v>0</v>
       </c>
       <c r="AR2">
         <v>9.6549892737036842</v>
@@ -643,104 +538,110 @@
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>11.835315116379029</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>14.032494178355286</v>
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>4.5810576820623377</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>16.842820040424851</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>10.590700259269173</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>10.121650118512122</v>
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>8.6404458605868228</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>7.625909589638213</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>14.0299689138688</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>8.3714472525245025</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>13.107663077411384</v>
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>15.478080212563631</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>14.115247175615679</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>15.46825337714014</v>
+        <v>0</v>
       </c>
       <c r="W3">
         <v>18.925947548789551</v>
       </c>
       <c r="AA3">
-        <v>12.859283047060073</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>6.8673087738024723</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>10.083968982097971</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>7.3442827922794773</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>12.955648365949653</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>8.6296762587608171</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>15.850681369037918</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>6.1974114004854917</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>4.9052737943091715</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>10.071221774397184</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>9.2292025137333482</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>13.516678356334694</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>12.129492673619861</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>14.795218029815132</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>13.311873667376766</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>12.001330289313923</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>17.423704305718715</v>
+        <v>0</v>
       </c>
       <c r="AS3">
         <v>17.083708628190067</v>

--- a/data_output/prism_passive/all_passive_out_licht_pennation_GM_submax_1.xlsx
+++ b/data_output/prism_passive/all_passive_out_licht_pennation_GM_submax_1.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>9.2440261960671055</v>
-      </c>
-      <c r="C2">
-        <v>12.833386435684965</v>
+        <v>10.728384784212942</v>
       </c>
       <c r="D2">
-        <v>17.041785773896159</v>
+        <v>8.1335694119915729</v>
       </c>
       <c r="E2">
-        <v>9.7979249036859493</v>
+        <v>13.937656838577013</v>
       </c>
       <c r="F2">
         <v>8.3278446741226588</v>
@@ -651,14 +643,14 @@
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>11.835315122747016</v>
-      </c>
       <c r="C3">
-        <v>14.032494190081437</v>
+        <v>15.46825337714014</v>
+      </c>
+      <c r="D3">
+        <v>14.976920393192682</v>
       </c>
       <c r="E3">
-        <v>4.5810576772493095</v>
+        <v>15.312650808290284</v>
       </c>
       <c r="F3">
         <v>16.842820027276368</v>

--- a/data_output/prism_passive/all_passive_out_licht_pennation_GM_submax_1.xlsx
+++ b/data_output/prism_passive/all_passive_out_licht_pennation_GM_submax_1.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>9.2440261960671055</v>
+        <v>15.225772456583631</v>
       </c>
       <c r="C2">
-        <v>12.833386435684965</v>
+        <v>10.728384784212942</v>
       </c>
       <c r="D2">
-        <v>17.041785773896159</v>
+        <v>15.426059636194196</v>
       </c>
       <c r="E2">
-        <v>9.7979249036859493</v>
+        <v>8.1335694119915729</v>
       </c>
       <c r="F2">
         <v>8.3278446741226588</v>
@@ -649,13 +644,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>11.835315122747016</v>
-      </c>
-      <c r="C3">
-        <v>14.032494190081437</v>
+        <v>13.107663077411384</v>
+      </c>
+      <c r="D3">
+        <v>12.129492673619861</v>
       </c>
       <c r="E3">
-        <v>3.8582859310740405</v>
+        <v>14.976920393192682</v>
       </c>
       <c r="F3">
         <v>16.842820027276368</v>

--- a/data_output/prism_passive/all_passive_out_licht_pennation_GM_submax_1.xlsx
+++ b/data_output/prism_passive/all_passive_out_licht_pennation_GM_submax_1.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -513,130 +513,130 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>9.2440261996355328</v>
+      </c>
+      <c r="C2">
+        <v>12.833386434552356</v>
+      </c>
+      <c r="D2">
+        <v>17.041785765171891</v>
+      </c>
+      <c r="E2">
+        <v>9.7979249052399666</v>
+      </c>
+      <c r="F2">
+        <v>8.3278446551493293</v>
+      </c>
+      <c r="G2">
+        <v>8.5812012215910016</v>
+      </c>
+      <c r="H2">
+        <v>15.700021662631492</v>
+      </c>
+      <c r="I2">
+        <v>14.301511121279368</v>
+      </c>
+      <c r="J2">
+        <v>14.842325382121325</v>
+      </c>
+      <c r="K2">
+        <v>13.839187507961643</v>
+      </c>
+      <c r="L2">
+        <v>19.609068464277229</v>
+      </c>
+      <c r="N2">
         <v>15.225772456583631</v>
       </c>
-      <c r="C2">
+      <c r="O2">
         <v>10.728384784212942</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>20.612823879966818</v>
+      </c>
+      <c r="Q2">
+        <v>14.381506068844836</v>
+      </c>
+      <c r="V2">
+        <v>18.732391436143825</v>
+      </c>
+      <c r="W2">
+        <v>19.987975537240825</v>
+      </c>
+      <c r="X2">
+        <v>13.960699238526431</v>
+      </c>
+      <c r="AA2">
+        <v>11.210407616674711</v>
+      </c>
+      <c r="AB2">
+        <v>15.374548063796517</v>
+      </c>
+      <c r="AC2">
+        <v>15.730791093079919</v>
+      </c>
+      <c r="AD2">
+        <v>10.050636904246964</v>
+      </c>
+      <c r="AE2">
+        <v>11.023235851956418</v>
+      </c>
+      <c r="AF2">
+        <v>14.212206383124446</v>
+      </c>
+      <c r="AG2">
+        <v>7.7657027454448215</v>
+      </c>
+      <c r="AH2">
+        <v>15.379188822032454</v>
+      </c>
+      <c r="AI2">
+        <v>15.150576762204922</v>
+      </c>
+      <c r="AJ2">
+        <v>20.16337178886814</v>
+      </c>
+      <c r="AK2">
+        <v>14.901701182011449</v>
+      </c>
+      <c r="AL2">
+        <v>7.0892180082844449</v>
+      </c>
+      <c r="AM2">
         <v>15.426059636194196</v>
       </c>
-      <c r="E2">
+      <c r="AN2">
         <v>8.1335694119915729</v>
       </c>
-      <c r="F2">
-        <v>8.3278446741226588</v>
-      </c>
-      <c r="G2">
-        <v>8.5812012174231054</v>
-      </c>
-      <c r="H2">
-        <v>15.700021668156587</v>
-      </c>
-      <c r="I2">
-        <v>14.301511131143503</v>
-      </c>
-      <c r="J2">
-        <v>14.842325397314484</v>
-      </c>
-      <c r="K2">
-        <v>13.839187524737614</v>
-      </c>
-      <c r="L2">
-        <v>19.609068476296574</v>
-      </c>
-      <c r="N2">
-        <v>15.225772461709468</v>
-      </c>
-      <c r="O2">
-        <v>10.728384776909039</v>
-      </c>
-      <c r="P2">
-        <v>20.612823883511012</v>
-      </c>
-      <c r="Q2">
-        <v>14.381506063324565</v>
-      </c>
-      <c r="V2">
-        <v>18.732391390197765</v>
-      </c>
-      <c r="W2">
-        <v>19.987975521203307</v>
-      </c>
-      <c r="X2">
-        <v>13.960699244514863</v>
-      </c>
-      <c r="AA2">
-        <v>11.210407618583915</v>
-      </c>
-      <c r="AB2">
-        <v>15.374548058367807</v>
-      </c>
-      <c r="AC2">
-        <v>15.730791073304042</v>
-      </c>
-      <c r="AD2">
-        <v>10.050636889088095</v>
-      </c>
-      <c r="AE2">
-        <v>11.023235846193646</v>
-      </c>
-      <c r="AF2">
-        <v>14.212206387363945</v>
-      </c>
-      <c r="AG2">
-        <v>7.7657027103940219</v>
-      </c>
-      <c r="AH2">
-        <v>15.379188813055631</v>
-      </c>
-      <c r="AI2">
-        <v>15.150576762974538</v>
-      </c>
-      <c r="AJ2">
-        <v>20.163371761365887</v>
-      </c>
-      <c r="AK2">
-        <v>14.90170117476141</v>
-      </c>
-      <c r="AL2">
-        <v>7.0892179885825701</v>
-      </c>
-      <c r="AM2">
-        <v>15.426059629485989</v>
-      </c>
-      <c r="AN2">
-        <v>8.1335694002945171</v>
-      </c>
       <c r="AO2">
-        <v>20.751943702836833</v>
+        <v>20.751943700256653</v>
       </c>
       <c r="AP2">
-        <v>15.086317200510804</v>
+        <v>15.086317207261306</v>
       </c>
       <c r="AQ2">
-        <v>13.93765682814772</v>
+        <v>13.937656838577013</v>
       </c>
       <c r="AR2">
-        <v>9.6549892713411243</v>
+        <v>9.6549892737036842</v>
       </c>
       <c r="AS2">
-        <v>14.703469549859378</v>
+        <v>14.703469558758311</v>
       </c>
       <c r="AU2">
-        <v>19.959278283538175</v>
+        <v>19.959278306372731</v>
       </c>
       <c r="AV2">
-        <v>16.523376641933666</v>
+        <v>16.523376657762455</v>
       </c>
       <c r="AW2">
-        <v>18.415088973760632</v>
+        <v>18.415088988219878</v>
       </c>
       <c r="AX2">
-        <v>7.6042094745843665</v>
+        <v>7.6042094674285989</v>
       </c>
       <c r="AY2">
-        <v>15.464124574408601</v>
+        <v>15.464124581980226</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -644,121 +644,121 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>11.835315116379029</v>
+      </c>
+      <c r="C3">
+        <v>14.032494178355286</v>
+      </c>
+      <c r="E3">
+        <v>3.8582859239445471</v>
+      </c>
+      <c r="F3">
+        <v>16.842820040424851</v>
+      </c>
+      <c r="G3">
+        <v>10.590700259269173</v>
+      </c>
+      <c r="H3">
+        <v>10.121650118512122</v>
+      </c>
+      <c r="J3">
+        <v>8.6404458605868228</v>
+      </c>
+      <c r="K3">
+        <v>8.3366026818514332</v>
+      </c>
+      <c r="L3">
+        <v>14.0299689138688</v>
+      </c>
+      <c r="M3">
+        <v>9.7688427108951288</v>
+      </c>
+      <c r="N3">
         <v>13.107663077411384</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>15.478080212563631</v>
+      </c>
+      <c r="Q3">
+        <v>14.115247175615679</v>
+      </c>
+      <c r="R3">
+        <v>15.46825337714014</v>
+      </c>
+      <c r="W3">
+        <v>18.925947548789551</v>
+      </c>
+      <c r="AA3">
+        <v>12.859283047060073</v>
+      </c>
+      <c r="AB3">
+        <v>6.8673087738024723</v>
+      </c>
+      <c r="AC3">
+        <v>10.083968982097971</v>
+      </c>
+      <c r="AD3">
+        <v>7.3442827922794773</v>
+      </c>
+      <c r="AE3">
+        <v>12.955648365949653</v>
+      </c>
+      <c r="AF3">
+        <v>8.6296762587608171</v>
+      </c>
+      <c r="AG3">
+        <v>15.850681369037918</v>
+      </c>
+      <c r="AH3">
+        <v>6.1974114004854917</v>
+      </c>
+      <c r="AI3">
+        <v>7.8241302530136547</v>
+      </c>
+      <c r="AJ3">
+        <v>10.071221774397184</v>
+      </c>
+      <c r="AK3">
+        <v>9.2292025137333482</v>
+      </c>
+      <c r="AL3">
+        <v>13.516678356334694</v>
+      </c>
+      <c r="AM3">
         <v>12.129492673619861</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>14.976920393192682</v>
       </c>
-      <c r="F3">
-        <v>16.842820027276368</v>
-      </c>
-      <c r="G3">
-        <v>10.590700258155309</v>
-      </c>
-      <c r="H3">
-        <v>10.121650120846375</v>
-      </c>
-      <c r="J3">
-        <v>8.6404458605475423</v>
-      </c>
-      <c r="K3">
-        <v>8.3366026704613549</v>
-      </c>
-      <c r="L3">
-        <v>14.029968930927099</v>
-      </c>
-      <c r="M3">
-        <v>9.7689939361195304</v>
-      </c>
-      <c r="N3">
-        <v>13.107663081764084</v>
-      </c>
-      <c r="P3">
-        <v>15.478080205878449</v>
-      </c>
-      <c r="Q3">
-        <v>14.115247179951979</v>
-      </c>
-      <c r="R3">
-        <v>15.468253362592009</v>
-      </c>
-      <c r="W3">
-        <v>18.92594754173339</v>
-      </c>
-      <c r="AA3">
-        <v>12.859283034758743</v>
-      </c>
-      <c r="AB3">
-        <v>6.867308783540337</v>
-      </c>
-      <c r="AC3">
-        <v>10.083968987506168</v>
-      </c>
-      <c r="AD3">
-        <v>7.3442827758742917</v>
-      </c>
-      <c r="AE3">
-        <v>12.955648364529077</v>
-      </c>
-      <c r="AF3">
-        <v>8.6296762589367848</v>
-      </c>
-      <c r="AG3">
-        <v>15.850681356039233</v>
-      </c>
-      <c r="AH3">
-        <v>6.1974114094353814</v>
-      </c>
-      <c r="AI3">
-        <v>7.8241302487108566</v>
-      </c>
-      <c r="AJ3">
-        <v>10.071221762456329</v>
-      </c>
-      <c r="AK3">
-        <v>9.2292025051034265</v>
-      </c>
-      <c r="AL3">
-        <v>13.516678350586924</v>
-      </c>
-      <c r="AM3">
-        <v>12.129492668621431</v>
-      </c>
-      <c r="AN3">
-        <v>14.976920382286622</v>
-      </c>
       <c r="AO3">
-        <v>13.311873685960034</v>
+        <v>13.311873667376766</v>
       </c>
       <c r="AP3">
-        <v>12.001330278085305</v>
+        <v>12.001330289313923</v>
       </c>
       <c r="AQ3">
-        <v>15.312650802537286</v>
+        <v>15.312650808290284</v>
       </c>
       <c r="AS3">
-        <v>17.083708635526257</v>
+        <v>17.083708628190067</v>
       </c>
       <c r="AT3">
-        <v>13.015286387394438</v>
+        <v>13.015286389141645</v>
       </c>
       <c r="AU3">
-        <v>21.011455275584261</v>
+        <v>21.011455242900297</v>
       </c>
       <c r="AV3">
-        <v>13.742704570395745</v>
+        <v>13.742704574754491</v>
       </c>
       <c r="AW3">
-        <v>9.3830262708301682</v>
+        <v>9.3830262846502617</v>
       </c>
       <c r="AX3">
-        <v>19.493859758199683</v>
+        <v>19.493859761542573</v>
       </c>
       <c r="AY3">
-        <v>11.988955733117226</v>
+        <v>11.988955725989465</v>
       </c>
     </row>
   </sheetData>
